--- a/sample_synthetic/concat_dataframe_final.xlsx
+++ b/sample_synthetic/concat_dataframe_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK5"/>
+  <dimension ref="A1:FK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IMGX5480</t>
+          <t>RMGX0398</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LDWX3890</t>
+          <t>RNCX0874</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KUGX3748</t>
+          <t>KWMX1576</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIBX9356</t>
+          <t>VKTX6401</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2661,6 +2661,355 @@
       <c r="FJ5" t="inlineStr"/>
       <c r="FK5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OTSX1872</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-06-03</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-06-08</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2509</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1710</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3154886</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>ZB60</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>AE17063724A0956016</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>6110-1107</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>1100016</v>
+      </c>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>3126673</v>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr"/>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr"/>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr"/>
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr"/>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="inlineStr"/>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr"/>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="inlineStr"/>
+      <c r="DK6" t="inlineStr"/>
+      <c r="DL6" t="inlineStr"/>
+      <c r="DM6" t="inlineStr"/>
+      <c r="DN6" t="inlineStr"/>
+      <c r="DO6" t="inlineStr"/>
+      <c r="DP6" t="inlineStr"/>
+      <c r="DQ6" t="inlineStr"/>
+      <c r="DR6" t="inlineStr"/>
+      <c r="DS6" t="inlineStr"/>
+      <c r="DT6" t="inlineStr"/>
+      <c r="DU6" t="inlineStr"/>
+      <c r="DV6" t="inlineStr"/>
+      <c r="DW6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr"/>
+      <c r="DY6" t="inlineStr"/>
+      <c r="DZ6" t="inlineStr"/>
+      <c r="EA6" t="inlineStr"/>
+      <c r="EB6" t="inlineStr"/>
+      <c r="EC6" t="inlineStr"/>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
+      <c r="EG6" t="inlineStr"/>
+      <c r="EH6" t="inlineStr"/>
+      <c r="EI6" t="inlineStr"/>
+      <c r="EJ6" t="inlineStr"/>
+      <c r="EK6" t="inlineStr"/>
+      <c r="EL6" t="inlineStr"/>
+      <c r="EM6" t="inlineStr"/>
+      <c r="EN6" t="inlineStr"/>
+      <c r="EO6" t="inlineStr"/>
+      <c r="EP6" t="inlineStr"/>
+      <c r="EQ6" t="inlineStr"/>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
+      <c r="ET6" t="inlineStr"/>
+      <c r="EU6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>Hello_4</t>
+        </is>
+      </c>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>p@1.andala@gmail.com</t>
+        </is>
+      </c>
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="FI6" t="inlineStr"/>
+      <c r="FJ6" t="inlineStr"/>
+      <c r="FK6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
